--- a/牛客笔试题/String.xlsx
+++ b/牛客笔试题/String.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12140" windowHeight="4320"/>
+    <workbookView windowWidth="13875" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -33,7 +33,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48,7 +48,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,53 +62,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,9 +77,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,8 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,25 +137,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,97 +185,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,73 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +404,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -423,30 +447,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -722,7 +722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635" y="121920"/>
-          <a:ext cx="7747635" cy="3867150"/>
+          <a:ext cx="8441055" cy="3727450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,8 +763,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7918450" y="577850"/>
-          <a:ext cx="4064000" cy="2292350"/>
+          <a:off x="8629650" y="558800"/>
+          <a:ext cx="4419600" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,8 +805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="5397500"/>
-          <a:ext cx="4959350" cy="4737100"/>
+          <a:off x="635" y="5207000"/>
+          <a:ext cx="5403850" cy="4565650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,8 +847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="9029700"/>
-          <a:ext cx="8338185" cy="552450"/>
+          <a:off x="5473700" y="8712200"/>
+          <a:ext cx="9084945" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="10807700"/>
-          <a:ext cx="6108700" cy="4451350"/>
+          <a:off x="635" y="10426700"/>
+          <a:ext cx="6659880" cy="4292600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,8 +931,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6280150" y="11277600"/>
-          <a:ext cx="8331835" cy="622300"/>
+          <a:off x="6831330" y="10877550"/>
+          <a:ext cx="9096375" cy="603250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52705</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52705" y="15630525"/>
+          <a:ext cx="8067675" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90805</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="305435" y="19831050"/>
+          <a:ext cx="3657600" cy="2038350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,13 +1321,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="AI68" sqref="AI68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.81818181818182" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="2.81666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="2.81818181818182" customWidth="1"/>
+    <col min="1" max="16384" width="2.81666666666667" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,7 +1346,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1279,7 +1363,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/牛客笔试题/String.xlsx
+++ b/牛客笔试题/String.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13875" windowHeight="9825"/>
+    <workbookView windowWidth="13875" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -34,6 +34,112 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48,21 +154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,36 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -113,68 +175,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,48 +381,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,15 +401,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,10 +422,56 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,6 +1029,216 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100330</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100330" y="22393275"/>
+          <a:ext cx="9715500" cy="6353175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14605" y="29175075"/>
+          <a:ext cx="9858375" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71755</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="286385" y="32956500"/>
+          <a:ext cx="5962650" cy="8296275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224155" y="41576625"/>
+          <a:ext cx="8705850" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109855</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="109855" y="42500550"/>
+          <a:ext cx="9153525" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1321,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="AB241" sqref="AB241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81666666666667" defaultRowHeight="13.5"/>
